--- a/biology/Médecine/Darifénacine/Darifénacine.xlsx
+++ b/biology/Médecine/Darifénacine/Darifénacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Darif%C3%A9nacine</t>
+          <t>Darifénacine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La darifénacine, est une molécule utilisée comme médicament pour traiter l'hyperactivité vésicale et vendue entre autres sous le nom commercial Enablex[1].
+La darifénacine, est une molécule utilisée comme médicament pour traiter l'hyperactivité vésicale et vendue entre autres sous le nom commercial Enablex.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Darif%C3%A9nacine</t>
+          <t>Darifénacine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un anticholinergique qui aide la vessie à se détendre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un anticholinergique qui aide la vessie à se détendre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Darif%C3%A9nacine</t>
+          <t>Darifénacine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La darifénacine est utilisée pour traiter l'hyperactivité vésicale[1]. Le traitement est pris une fois par jour par voie orale[1]. Les bénéfices sont généralement visibles dans les 2 semaines[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La darifénacine est utilisée pour traiter l'hyperactivité vésicale. Le traitement est pris une fois par jour par voie orale. Les bénéfices sont généralement visibles dans les 2 semaines.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Darif%C3%A9nacine</t>
+          <t>Darifénacine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants incluent la bouche sèche et la constipation[1]; d'autres effets secondaires peuvent inclure la toux, les douleurs vésicales, la vision floue, la rétention urinaire, l'essoufflement, le dysfonctionnement sexuel et l'hypertension artérielle[1],[3]. L'utilisation est déconseillée pendant la grossesse[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants incluent la bouche sèche et la constipation; d'autres effets secondaires peuvent inclure la toux, les douleurs vésicales, la vision floue, la rétention urinaire, l'essoufflement, le dysfonctionnement sexuel et l'hypertension artérielle,. L'utilisation est déconseillée pendant la grossesse.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darif%C3%A9nacine</t>
+          <t>Darifénacine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La darifénacine a été approuvée pour un usage médical aux États-Unis et en Europe en 2004[1],[2]. Il est disponible sous forme de médicament générique[4]. Aux États-Unis, cela coûte environ 37 dollars américains par mois à partir de 2021[4]. Au Royaume-Uni, ce traitement coûte environ 25 livres sterling au NHS[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La darifénacine a été approuvée pour un usage médical aux États-Unis et en Europe en 2004,. Il est disponible sous forme de médicament générique. Aux États-Unis, cela coûte environ 37 dollars américains par mois à partir de 2021. Au Royaume-Uni, ce traitement coûte environ 25 livres sterling au NHS.
 </t>
         </is>
       </c>
